--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CDE/10/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CDE/10/seed3/result_data_RandomForest.xlsx
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.3021</v>
+        <v>16.34740000000001</v>
       </c>
     </row>
     <row r="4">
@@ -556,7 +556,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.094100000000001</v>
+        <v>-7.106400000000002</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -604,7 +604,7 @@
         <v>6.17</v>
       </c>
       <c r="C10" t="n">
-        <v>-13.1014</v>
+        <v>-13.04559999999999</v>
       </c>
       <c r="D10" t="n">
         <v>-8.85</v>
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.6799</v>
+        <v>-10.71159999999999</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.210099999999997</v>
+        <v>-7.992699999999996</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -740,13 +740,13 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-11.56009999999999</v>
+        <v>-11.47469999999999</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
       </c>
       <c r="E18" t="n">
-        <v>18.16480000000001</v>
+        <v>18.18410000000001</v>
       </c>
     </row>
     <row r="19">
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.6009</v>
+        <v>16.56050000000001</v>
       </c>
     </row>
     <row r="20">
@@ -777,7 +777,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.560099999999994</v>
+        <v>-7.859199999999998</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -899,7 +899,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.4961</v>
+        <v>16.38</v>
       </c>
     </row>
     <row r="28">
@@ -930,7 +930,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.003199999999998</v>
+        <v>-6.831</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.727299999999997</v>
+        <v>-7.7012</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -964,7 +964,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.420000000000005</v>
+        <v>-8.411400000000004</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-12.988</v>
+        <v>-13.0906</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1117,7 +1117,7 @@
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-8.431999999999992</v>
+        <v>-8.413199999999993</v>
       </c>
       <c r="E40" t="n">
         <v>16.16</v>
@@ -1154,7 +1154,7 @@
         <v>-7.75</v>
       </c>
       <c r="E42" t="n">
-        <v>16.45359999999999</v>
+        <v>16.6572</v>
       </c>
     </row>
     <row r="43">
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.6318</v>
+        <v>16.48229999999999</v>
       </c>
     </row>
     <row r="45">
@@ -1239,7 +1239,7 @@
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>16.3232</v>
+        <v>16.3381</v>
       </c>
     </row>
     <row r="48">
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.9652</v>
+        <v>-13.6769</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1426,7 +1426,7 @@
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.37540000000001</v>
+        <v>16.45280000000001</v>
       </c>
     </row>
     <row r="59">
@@ -1590,10 +1590,10 @@
         <v>4.88</v>
       </c>
       <c r="C68" t="n">
-        <v>-10.8589</v>
+        <v>-10.9582</v>
       </c>
       <c r="D68" t="n">
-        <v>-7.014099999999997</v>
+        <v>-7.024799999999995</v>
       </c>
       <c r="E68" t="n">
         <v>17.66</v>
@@ -1681,7 +1681,7 @@
         <v>-6.42</v>
       </c>
       <c r="E73" t="n">
-        <v>17.36130000000002</v>
+        <v>17.43760000000001</v>
       </c>
     </row>
     <row r="74">
@@ -1729,7 +1729,7 @@
         <v>-15.06</v>
       </c>
       <c r="D76" t="n">
-        <v>-7.556900000000002</v>
+        <v>-7.604699999999999</v>
       </c>
       <c r="E76" t="n">
         <v>16.38</v>
@@ -1743,7 +1743,7 @@
         <v>10.09</v>
       </c>
       <c r="C77" t="n">
-        <v>-12.2507</v>
+        <v>-12.1475</v>
       </c>
       <c r="D77" t="n">
         <v>-6.2</v>
@@ -1760,7 +1760,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-12.868</v>
+        <v>-12.48380000000001</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1916,7 +1916,7 @@
         <v>-15.19</v>
       </c>
       <c r="D87" t="n">
-        <v>-8.062799999999994</v>
+        <v>-7.932899999999995</v>
       </c>
       <c r="E87" t="n">
         <v>16.53</v>
@@ -1933,7 +1933,7 @@
         <v>-14.65</v>
       </c>
       <c r="D88" t="n">
-        <v>-7.256499999999996</v>
+        <v>-7.318899999999996</v>
       </c>
       <c r="E88" t="n">
         <v>17.32</v>
@@ -2055,7 +2055,7 @@
         <v>-6.44</v>
       </c>
       <c r="E95" t="n">
-        <v>18.08470000000002</v>
+        <v>18.00780000000002</v>
       </c>
     </row>
     <row r="96">
@@ -2069,7 +2069,7 @@
         <v>-10.59</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.8306</v>
+        <v>-7.718500000000001</v>
       </c>
       <c r="E96" t="n">
         <v>16.3</v>
@@ -2103,7 +2103,7 @@
         <v>-13.95</v>
       </c>
       <c r="D98" t="n">
-        <v>-8.464800000000007</v>
+        <v>-8.565700000000003</v>
       </c>
       <c r="E98" t="n">
         <v>15.27</v>
@@ -2154,10 +2154,10 @@
         <v>-11.07</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.864399999999998</v>
+        <v>-7.879700000000001</v>
       </c>
       <c r="E101" t="n">
-        <v>16.7334</v>
+        <v>16.7815</v>
       </c>
     </row>
     <row r="102">
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-8.051499999999999</v>
+        <v>-8.047499999999998</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
